--- a/biology/Médecine/Formule_chromosomique/Formule_chromosomique.xlsx
+++ b/biology/Médecine/Formule_chromosomique/Formule_chromosomique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La formule chromosomique correspond à la notation du résultat d'un caryotype.
 </t>
@@ -511,7 +523,9 @@
           <t>Structure globale</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La formule commence par le nombre de chromosomes, puis comporte une virgule dont la signification est dont, puis le symbole des gonosomes présents et enfin les symboles décrivant les chromosomes anormaux.
 </t>
@@ -542,7 +556,9 @@
           <t>Nombre de chromosomes apparents</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La formule chromosomique commence par la mention du nombre de chromosomes apparents. Ce nombre ne prend pas en considération le matériel génétique, mais uniquement le nombre de chromosomes, que leur taille soit normale ou anormale et ne peut donc que faire partie du groupe des entiers naturels.
 Exemples : 44 ou 45 ou 46 ou 47 ou 48 ou 50
@@ -574,7 +590,9 @@
           <t>Énumération des gonosomes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Il faut les énumérer
 </t>
@@ -605,12 +623,48 @@
           <t>Énumération des autosomes anormaux</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>translocation ex t(21,11)
-translocation robertsonnienne der(21)t(21;21)
-Termes
-add = Addition d'un matériel d'origine inconnue
+translocation robertsonnienne der(21)t(21;21)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Formule_chromosomique</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Formule_chromosomique</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Énumération des autosomes anormaux</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Termes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>add = Addition d'un matériel d'origine inconnue
 del = Délétion
 de novo = Anormalité chromosomique qui n'est pas transmise de façon héréditaire
 der = Chromosome dérivé
@@ -642,31 +696,33 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Formule_chromosomique</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Formule_chromosomique</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Exemples</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Formule chromosomique normale d'une femme :de [46, 2xsub] [46, XXsubsanguin] les chromosomes sont ditraptéiques, car deux identiques.
 Formule chromosomique normale d'un homme :de [46, 1xsub]'[46, 1y sub][46, XYsutsanguin]' les chromosomes sont unidraptéiques car ils diffèrent.
